--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 7,35</t>
+          <t>-6,95; 7,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 23,36</t>
+          <t>-0,97; 23,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 14,57</t>
+          <t>-5,6; 15,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 5,49</t>
+          <t>-14,66; 5,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 109,26</t>
+          <t>-49,26; 133,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 167,35</t>
+          <t>-7,77; 159,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 132,7</t>
+          <t>-29,12; 133,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 36,1</t>
+          <t>-47,45; 36,9</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,07</t>
+          <t>-0,6; 8,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 18,54</t>
+          <t>9,15; 18,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,64</t>
+          <t>-0,79; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,9</t>
+          <t>1,04; 8,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 55,6</t>
+          <t>-3,03; 58,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,92; 196,42</t>
+          <t>69,31; 194,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 66,53</t>
+          <t>-4,96; 68,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 72,18</t>
+          <t>5,86; 67,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,76</t>
+          <t>2,25; 9,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,79</t>
+          <t>3,51; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,7</t>
+          <t>1,73; 7,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,47</t>
+          <t>4,64; 10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 62,2</t>
+          <t>11,36; 58,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 72,13</t>
+          <t>19,72; 73,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 85,18</t>
+          <t>15,17; 86,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,0; 126,75</t>
+          <t>40,71; 122,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,1</t>
+          <t>1,74; 10,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,35</t>
+          <t>5,96; 14,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,56</t>
+          <t>2,48; 9,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 39,94</t>
+          <t>2,44; 38,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 68,58</t>
+          <t>8,07; 66,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,51; 120,54</t>
+          <t>35,36; 113,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 109,08</t>
+          <t>19,13; 112,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 303,31</t>
+          <t>14,88; 297,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,44</t>
+          <t>2,73; 9,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,01</t>
+          <t>6,48; 14,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,22</t>
+          <t>1,85; 7,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,07</t>
+          <t>3,5; 10,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 61,91</t>
+          <t>14,31; 62,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,99; 85,37</t>
+          <t>31,68; 88,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 77,17</t>
+          <t>13,48; 73,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 78,05</t>
+          <t>19,96; 74,99</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,6; 7,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,16; 12,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,41; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,94</t>
+          <t>5,24; 16,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>20,1; 46,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>49,14; 82,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,27; 60,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,39; 117,83</t>
+          <t>36,97; 124,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 7,74</t>
+          <t>-7,8; 8,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 23,17</t>
+          <t>-1,33; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 15,57</t>
+          <t>-5,41; 14,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 133,99</t>
+          <t>-53,29; 143,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 159,88</t>
+          <t>-6,52; 159,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 133,93</t>
+          <t>-28,79; 126,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,33</t>
+          <t>-1,04; 8,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 18,26</t>
+          <t>9,45; 18,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,97</t>
+          <t>-0,63; 7,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 58,13</t>
+          <t>-5,92; 56,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,31; 194,24</t>
+          <t>69,28; 194,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 68,52</t>
+          <t>-5,32; 66,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,61</t>
+          <t>2,24; 9,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,57</t>
+          <t>3,36; 10,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,77</t>
+          <t>1,86; 7,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 58,6</t>
+          <t>11,5; 60,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 73,69</t>
+          <t>18,14; 73,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 86,66</t>
+          <t>15,56; 86,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,12</t>
+          <t>1,46; 10,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 14,54</t>
+          <t>6,34; 14,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,97</t>
+          <t>2,52; 9,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 66,96</t>
+          <t>7,66; 69,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,36; 113,67</t>
+          <t>37,45; 112,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 112,22</t>
+          <t>19,14; 108,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 9,58</t>
+          <t>2,25; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,24</t>
+          <t>6,09; 14,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,97</t>
+          <t>1,79; 8,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 62,62</t>
+          <t>12,26; 61,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,68; 88,55</t>
+          <t>29,47; 85,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,48; 73,02</t>
+          <t>13,33; 78,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,44</t>
+          <t>3,44; 7,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,19</t>
+          <t>8,04; 12,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,7</t>
+          <t>3,24; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 46,32</t>
+          <t>19,23; 45,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,14; 82,62</t>
+          <t>46,86; 81,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,27; 60,89</t>
+          <t>25,77; 61,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 8,23</t>
+          <t>-7,96; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 22,2</t>
+          <t>-0,52; 23,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 14,64</t>
+          <t>-7,04; 14,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 5,56</t>
+          <t>-13,48; 5,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 143,8</t>
+          <t>-57,55; 109,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 159,08</t>
+          <t>-2,92; 167,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 126,64</t>
+          <t>-33,95; 132,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 36,9</t>
+          <t>-44,92; 36,1</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,12</t>
+          <t>-0,57; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 18,36</t>
+          <t>9,56; 18,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,8</t>
+          <t>-0,83; 7,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,27</t>
+          <t>1,06; 8,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 56,71</t>
+          <t>-3,18; 55,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,28; 194,44</t>
+          <t>70,92; 196,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 66,68</t>
+          <t>-5,17; 66,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 67,54</t>
+          <t>6,35; 72,18</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,63</t>
+          <t>2,27; 9,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,75</t>
+          <t>3,68; 10,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,68</t>
+          <t>2,0; 7,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,23</t>
+          <t>4,49; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 60,86</t>
+          <t>11,52; 62,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 73,45</t>
+          <t>20,01; 72,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 86,8</t>
+          <t>16,0; 85,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,71; 122,54</t>
+          <t>37,0; 126,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,28</t>
+          <t>1,13; 10,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,82</t>
+          <t>6,59; 15,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,59</t>
+          <t>2,51; 9,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 38,42</t>
+          <t>2,73; 39,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 69,76</t>
+          <t>5,88; 68,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,45; 112,07</t>
+          <t>37,51; 120,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 108,82</t>
+          <t>20,14; 109,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 297,05</t>
+          <t>16,93; 303,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,44</t>
+          <t>2,24; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,11</t>
+          <t>6,32; 14,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,34</t>
+          <t>1,79; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,09</t>
+          <t>3,46; 10,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 61,88</t>
+          <t>11,86; 61,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 85,97</t>
+          <t>29,99; 85,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 78,65</t>
+          <t>12,41; 77,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,96; 74,99</t>
+          <t>21,61; 78,05</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,33</t>
+          <t>3,38; 7,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,23</t>
+          <t>8,25; 12,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,7</t>
+          <t>3,24; 6,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 16,14</t>
+          <t>5,26; 15,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 45,72</t>
+          <t>19,08; 46,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,86; 81,38</t>
+          <t>49,0; 82,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,77; 61,59</t>
+          <t>25,82; 61,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,97; 124,92</t>
+          <t>36,39; 117,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>107,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>25,68%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 7,35</t>
+          <t>-0,75; 7,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 23,36</t>
+          <t>9,45; 17,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 14,57</t>
+          <t>-0,09; 8,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 5,49</t>
+          <t>-0,06; 7,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 109,26</t>
+          <t>-4,23; 53,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 167,35</t>
+          <t>63,77; 164,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 132,7</t>
+          <t>-0,7; 64,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 36,1</t>
+          <t>-0,36; 54,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>122,74%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>115,36%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,07</t>
+          <t>2,27; 9,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 18,54</t>
+          <t>3,68; 10,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,64</t>
+          <t>2,0; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,9</t>
+          <t>6,08; 14,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 55,6</t>
+          <t>11,52; 62,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,92; 196,42</t>
+          <t>20,01; 72,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 66,53</t>
+          <t>16,0; 85,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 72,18</t>
+          <t>56,8; 331,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>21,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>143,28%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,76</t>
+          <t>1,13; 10,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,79</t>
+          <t>6,59; 15,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,7</t>
+          <t>2,51; 9,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,47</t>
+          <t>1,73; 53,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 62,2</t>
+          <t>5,88; 68,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 72,13</t>
+          <t>37,51; 120,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 85,18</t>
+          <t>20,14; 109,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,0; 126,75</t>
+          <t>11,5; 416,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>39,8%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,1</t>
+          <t>2,24; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,35</t>
+          <t>6,32; 14,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,56</t>
+          <t>1,79; 8,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 39,94</t>
+          <t>1,23; 9,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 68,58</t>
+          <t>11,86; 61,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,51; 120,54</t>
+          <t>29,99; 85,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 109,08</t>
+          <t>12,41; 77,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 303,31</t>
+          <t>7,94; 71,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,44</t>
+          <t>3,38; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,01</t>
+          <t>8,25; 12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,22</t>
+          <t>3,24; 6,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,07</t>
+          <t>5,56; 24,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 61,91</t>
+          <t>19,08; 46,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,99; 85,37</t>
+          <t>49,0; 82,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 77,17</t>
+          <t>25,82; 61,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 78,05</t>
+          <t>41,75; 215,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,12</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>32,16%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>64,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>42,84%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>60,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 7,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 12,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 6,78</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 15,94</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>19,08; 46,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,0; 82,55</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>25,82; 61,81</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>36,39; 117,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,13</t>
+          <t>-1,05; 7,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 17,85</t>
+          <t>9,17; 17,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 8,05</t>
+          <t>-0,13; 7,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 7,21</t>
+          <t>0,61; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 53,46</t>
+          <t>-6,01; 50,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,77; 164,05</t>
+          <t>62,73; 161,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 64,99</t>
+          <t>-0,86; 63,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 54,92</t>
+          <t>3,35; 59,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,76</t>
+          <t>2,19; 9,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,79</t>
+          <t>3,76; 10,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,7</t>
+          <t>1,94; 8,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,85</t>
+          <t>6,33; 14,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 62,2</t>
+          <t>10,32; 61,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,01; 72,13</t>
+          <t>20,57; 76,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 85,18</t>
+          <t>15,46; 90,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,8; 331,98</t>
+          <t>59,19; 346,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,1</t>
+          <t>1,85; 10,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,35</t>
+          <t>6,1; 15,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,56</t>
+          <t>2,51; 9,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 53,07</t>
+          <t>1,71; 50,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 68,58</t>
+          <t>8,28; 69,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,51; 120,54</t>
+          <t>33,48; 114,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 109,08</t>
+          <t>20,32; 110,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 416,95</t>
+          <t>10,2; 383,03</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,44</t>
+          <t>2,54; 9,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,01</t>
+          <t>6,51; 14,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,22</t>
+          <t>1,75; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,44</t>
+          <t>1,0; 9,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 61,91</t>
+          <t>13,6; 61,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 85,37</t>
+          <t>32,15; 86,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 77,17</t>
+          <t>12,9; 79,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 71,19</t>
+          <t>6,64; 71,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,61; 7,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,18; 12,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,45; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 24,1</t>
+          <t>5,59; 25,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>19,77; 45,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>48,25; 80,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,82; 62,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,75; 215,85</t>
+          <t>42,47; 225,35</t>
         </is>
       </c>
     </row>
